--- a/Kode/Server2/Logs/lora_node2/2020-05-13.xlsx
+++ b/Kode/Server2/Logs/lora_node2/2020-05-13.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F803"/>
+  <dimension ref="A1:F1176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16426,6 +16426,7466 @@
         <v>0</v>
       </c>
     </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>11</v>
+      </c>
+      <c r="B804" s="1" t="n">
+        <v>0.739816754050926</v>
+      </c>
+      <c r="C804" t="n">
+        <v>92</v>
+      </c>
+      <c r="D804" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E804" t="n">
+        <v>0</v>
+      </c>
+      <c r="F804" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>12</v>
+      </c>
+      <c r="B805" s="1" t="n">
+        <v>0.7405106448032407</v>
+      </c>
+      <c r="C805" t="n">
+        <v>92</v>
+      </c>
+      <c r="D805" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E805" t="n">
+        <v>0</v>
+      </c>
+      <c r="F805" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>13</v>
+      </c>
+      <c r="B806" s="1" t="n">
+        <v>0.7412047790162036</v>
+      </c>
+      <c r="C806" t="n">
+        <v>92</v>
+      </c>
+      <c r="D806" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E806" t="n">
+        <v>0</v>
+      </c>
+      <c r="F806" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>14</v>
+      </c>
+      <c r="B807" s="1" t="n">
+        <v>0.7416991395023148</v>
+      </c>
+      <c r="C807" t="n">
+        <v>92</v>
+      </c>
+      <c r="D807" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E807" t="n">
+        <v>0</v>
+      </c>
+      <c r="F807" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>15</v>
+      </c>
+      <c r="B808" s="1" t="n">
+        <v>0.7423943487268518</v>
+      </c>
+      <c r="C808" t="n">
+        <v>92</v>
+      </c>
+      <c r="D808" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E808" t="n">
+        <v>0</v>
+      </c>
+      <c r="F808" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>16</v>
+      </c>
+      <c r="B809" s="1" t="n">
+        <v>0.7430875472569445</v>
+      </c>
+      <c r="C809" t="n">
+        <v>92</v>
+      </c>
+      <c r="D809" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E809" t="n">
+        <v>0</v>
+      </c>
+      <c r="F809" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>17</v>
+      </c>
+      <c r="B810" s="1" t="n">
+        <v>0.7437820155555556</v>
+      </c>
+      <c r="C810" t="n">
+        <v>92</v>
+      </c>
+      <c r="D810" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E810" t="n">
+        <v>0</v>
+      </c>
+      <c r="F810" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>18</v>
+      </c>
+      <c r="B811" s="1" t="n">
+        <v>0.7444780468865742</v>
+      </c>
+      <c r="C811" t="n">
+        <v>92</v>
+      </c>
+      <c r="D811" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E811" t="n">
+        <v>0</v>
+      </c>
+      <c r="F811" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>19</v>
+      </c>
+      <c r="B812" s="1" t="n">
+        <v>0.7451696814236111</v>
+      </c>
+      <c r="C812" t="n">
+        <v>92</v>
+      </c>
+      <c r="D812" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E812" t="n">
+        <v>0</v>
+      </c>
+      <c r="F812" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>20</v>
+      </c>
+      <c r="B813" s="1" t="n">
+        <v>0.7458635232523149</v>
+      </c>
+      <c r="C813" t="n">
+        <v>92</v>
+      </c>
+      <c r="D813" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E813" t="n">
+        <v>0</v>
+      </c>
+      <c r="F813" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>21</v>
+      </c>
+      <c r="B814" s="1" t="n">
+        <v>0.7465579239351852</v>
+      </c>
+      <c r="C814" t="n">
+        <v>92</v>
+      </c>
+      <c r="D814" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E814" t="n">
+        <v>0</v>
+      </c>
+      <c r="F814" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>22</v>
+      </c>
+      <c r="B815" s="1" t="n">
+        <v>0.7472520295717593</v>
+      </c>
+      <c r="C815" t="n">
+        <v>92</v>
+      </c>
+      <c r="D815" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E815" t="n">
+        <v>0</v>
+      </c>
+      <c r="F815" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>23</v>
+      </c>
+      <c r="B816" s="1" t="n">
+        <v>0.7479484264236111</v>
+      </c>
+      <c r="C816" t="n">
+        <v>92</v>
+      </c>
+      <c r="D816" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E816" t="n">
+        <v>0</v>
+      </c>
+      <c r="F816" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>24</v>
+      </c>
+      <c r="B817" s="1" t="n">
+        <v>0.7486407817013889</v>
+      </c>
+      <c r="C817" t="n">
+        <v>92</v>
+      </c>
+      <c r="D817" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E817" t="n">
+        <v>0</v>
+      </c>
+      <c r="F817" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>25</v>
+      </c>
+      <c r="B818" s="1" t="n">
+        <v>0.749333612037037</v>
+      </c>
+      <c r="C818" t="n">
+        <v>92</v>
+      </c>
+      <c r="D818" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E818" t="n">
+        <v>0</v>
+      </c>
+      <c r="F818" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>26</v>
+      </c>
+      <c r="B819" s="1" t="n">
+        <v>0.7500273197569445</v>
+      </c>
+      <c r="C819" t="n">
+        <v>92</v>
+      </c>
+      <c r="D819" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E819" t="n">
+        <v>0</v>
+      </c>
+      <c r="F819" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>27</v>
+      </c>
+      <c r="B820" s="1" t="n">
+        <v>0.7507139751967593</v>
+      </c>
+      <c r="C820" t="n">
+        <v>92</v>
+      </c>
+      <c r="D820" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E820" t="n">
+        <v>0</v>
+      </c>
+      <c r="F820" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>28</v>
+      </c>
+      <c r="B821" s="1" t="n">
+        <v>0.7514177938888889</v>
+      </c>
+      <c r="C821" t="n">
+        <v>92</v>
+      </c>
+      <c r="D821" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E821" t="n">
+        <v>0</v>
+      </c>
+      <c r="F821" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>29</v>
+      </c>
+      <c r="B822" s="1" t="n">
+        <v>0.7521112226388889</v>
+      </c>
+      <c r="C822" t="n">
+        <v>92</v>
+      </c>
+      <c r="D822" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E822" t="n">
+        <v>0</v>
+      </c>
+      <c r="F822" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>30</v>
+      </c>
+      <c r="B823" s="1" t="n">
+        <v>0.7528050963194445</v>
+      </c>
+      <c r="C823" t="n">
+        <v>92</v>
+      </c>
+      <c r="D823" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E823" t="n">
+        <v>0</v>
+      </c>
+      <c r="F823" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>31</v>
+      </c>
+      <c r="B824" s="1" t="n">
+        <v>0.7535001065046296</v>
+      </c>
+      <c r="C824" t="n">
+        <v>92</v>
+      </c>
+      <c r="D824" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E824" t="n">
+        <v>0</v>
+      </c>
+      <c r="F824" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>32</v>
+      </c>
+      <c r="B825" s="1" t="n">
+        <v>0.7541937072685185</v>
+      </c>
+      <c r="C825" t="n">
+        <v>92</v>
+      </c>
+      <c r="D825" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E825" t="n">
+        <v>0</v>
+      </c>
+      <c r="F825" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>33</v>
+      </c>
+      <c r="B826" s="1" t="n">
+        <v>0.7548916157986112</v>
+      </c>
+      <c r="C826" t="n">
+        <v>92</v>
+      </c>
+      <c r="D826" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E826" t="n">
+        <v>0</v>
+      </c>
+      <c r="F826" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>34</v>
+      </c>
+      <c r="B827" s="1" t="n">
+        <v>0.7555813183449074</v>
+      </c>
+      <c r="C827" t="n">
+        <v>92</v>
+      </c>
+      <c r="D827" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E827" t="n">
+        <v>0</v>
+      </c>
+      <c r="F827" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>35</v>
+      </c>
+      <c r="B828" s="1" t="n">
+        <v>0.7562750832407408</v>
+      </c>
+      <c r="C828" t="n">
+        <v>92</v>
+      </c>
+      <c r="D828" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E828" t="n">
+        <v>0</v>
+      </c>
+      <c r="F828" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>36</v>
+      </c>
+      <c r="B829" s="1" t="n">
+        <v>0.7569692537152778</v>
+      </c>
+      <c r="C829" t="n">
+        <v>92</v>
+      </c>
+      <c r="D829" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E829" t="n">
+        <v>0</v>
+      </c>
+      <c r="F829" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>37</v>
+      </c>
+      <c r="B830" s="1" t="n">
+        <v>0.7576641036805556</v>
+      </c>
+      <c r="C830" t="n">
+        <v>92</v>
+      </c>
+      <c r="D830" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E830" t="n">
+        <v>0</v>
+      </c>
+      <c r="F830" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>38</v>
+      </c>
+      <c r="B831" s="1" t="n">
+        <v>0.7583582373379629</v>
+      </c>
+      <c r="C831" t="n">
+        <v>92</v>
+      </c>
+      <c r="D831" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E831" t="n">
+        <v>0</v>
+      </c>
+      <c r="F831" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>39</v>
+      </c>
+      <c r="B832" s="1" t="n">
+        <v>0.7590532268981481</v>
+      </c>
+      <c r="C832" t="n">
+        <v>92</v>
+      </c>
+      <c r="D832" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E832" t="n">
+        <v>0</v>
+      </c>
+      <c r="F832" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>40</v>
+      </c>
+      <c r="B833" s="1" t="n">
+        <v>0.7597466444907407</v>
+      </c>
+      <c r="C833" t="n">
+        <v>92</v>
+      </c>
+      <c r="D833" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E833" t="n">
+        <v>0</v>
+      </c>
+      <c r="F833" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>41</v>
+      </c>
+      <c r="B834" s="1" t="n">
+        <v>0.7604423597222223</v>
+      </c>
+      <c r="C834" t="n">
+        <v>92</v>
+      </c>
+      <c r="D834" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E834" t="n">
+        <v>0</v>
+      </c>
+      <c r="F834" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>42</v>
+      </c>
+      <c r="B835" s="1" t="n">
+        <v>0.761134247013889</v>
+      </c>
+      <c r="C835" t="n">
+        <v>92</v>
+      </c>
+      <c r="D835" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E835" t="n">
+        <v>0</v>
+      </c>
+      <c r="F835" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>43</v>
+      </c>
+      <c r="B836" s="1" t="n">
+        <v>0.7618289008912037</v>
+      </c>
+      <c r="C836" t="n">
+        <v>92</v>
+      </c>
+      <c r="D836" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E836" t="n">
+        <v>0</v>
+      </c>
+      <c r="F836" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>44</v>
+      </c>
+      <c r="B837" s="1" t="n">
+        <v>0.7625223102546296</v>
+      </c>
+      <c r="C837" t="n">
+        <v>92</v>
+      </c>
+      <c r="D837" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E837" t="n">
+        <v>0</v>
+      </c>
+      <c r="F837" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>45</v>
+      </c>
+      <c r="B838" s="1" t="n">
+        <v>0.7632159435416668</v>
+      </c>
+      <c r="C838" t="n">
+        <v>92</v>
+      </c>
+      <c r="D838" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E838" t="n">
+        <v>0</v>
+      </c>
+      <c r="F838" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>46</v>
+      </c>
+      <c r="B839" s="1" t="n">
+        <v>0.7639094322569444</v>
+      </c>
+      <c r="C839" t="n">
+        <v>92</v>
+      </c>
+      <c r="D839" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E839" t="n">
+        <v>0</v>
+      </c>
+      <c r="F839" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>47</v>
+      </c>
+      <c r="B840" s="1" t="n">
+        <v>0.7646037533564816</v>
+      </c>
+      <c r="C840" t="n">
+        <v>92</v>
+      </c>
+      <c r="D840" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E840" t="n">
+        <v>0</v>
+      </c>
+      <c r="F840" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>48</v>
+      </c>
+      <c r="B841" s="1" t="n">
+        <v>0.7653008661921297</v>
+      </c>
+      <c r="C841" t="n">
+        <v>92</v>
+      </c>
+      <c r="D841" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E841" t="n">
+        <v>0</v>
+      </c>
+      <c r="F841" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>49</v>
+      </c>
+      <c r="B842" s="1" t="n">
+        <v>0.7659906252546297</v>
+      </c>
+      <c r="C842" t="n">
+        <v>92</v>
+      </c>
+      <c r="D842" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E842" t="n">
+        <v>0</v>
+      </c>
+      <c r="F842" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>50</v>
+      </c>
+      <c r="B843" s="1" t="n">
+        <v>0.7666857973842592</v>
+      </c>
+      <c r="C843" t="n">
+        <v>92</v>
+      </c>
+      <c r="D843" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E843" t="n">
+        <v>0</v>
+      </c>
+      <c r="F843" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>51</v>
+      </c>
+      <c r="B844" s="1" t="n">
+        <v>0.7673802820949075</v>
+      </c>
+      <c r="C844" t="n">
+        <v>92</v>
+      </c>
+      <c r="D844" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E844" t="n">
+        <v>0</v>
+      </c>
+      <c r="F844" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>52</v>
+      </c>
+      <c r="B845" s="1" t="n">
+        <v>0.7680762019328704</v>
+      </c>
+      <c r="C845" t="n">
+        <v>92</v>
+      </c>
+      <c r="D845" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E845" t="n">
+        <v>0</v>
+      </c>
+      <c r="F845" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>53</v>
+      </c>
+      <c r="B846" s="1" t="n">
+        <v>0.7687690092939815</v>
+      </c>
+      <c r="C846" t="n">
+        <v>92</v>
+      </c>
+      <c r="D846" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E846" t="n">
+        <v>0</v>
+      </c>
+      <c r="F846" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>54</v>
+      </c>
+      <c r="B847" s="1" t="n">
+        <v>0.7694627972800926</v>
+      </c>
+      <c r="C847" t="n">
+        <v>92</v>
+      </c>
+      <c r="D847" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E847" t="n">
+        <v>0</v>
+      </c>
+      <c r="F847" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>55</v>
+      </c>
+      <c r="B848" s="1" t="n">
+        <v>0.7701583730671296</v>
+      </c>
+      <c r="C848" t="n">
+        <v>92</v>
+      </c>
+      <c r="D848" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E848" t="n">
+        <v>0</v>
+      </c>
+      <c r="F848" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>56</v>
+      </c>
+      <c r="B849" s="1" t="n">
+        <v>0.7708526675231482</v>
+      </c>
+      <c r="C849" t="n">
+        <v>92</v>
+      </c>
+      <c r="D849" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E849" t="n">
+        <v>0</v>
+      </c>
+      <c r="F849" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>57</v>
+      </c>
+      <c r="B850" s="1" t="n">
+        <v>0.7715448841666667</v>
+      </c>
+      <c r="C850" t="n">
+        <v>92</v>
+      </c>
+      <c r="D850" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E850" t="n">
+        <v>0</v>
+      </c>
+      <c r="F850" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>58</v>
+      </c>
+      <c r="B851" s="1" t="n">
+        <v>0.7722390764814815</v>
+      </c>
+      <c r="C851" t="n">
+        <v>92</v>
+      </c>
+      <c r="D851" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E851" t="n">
+        <v>0</v>
+      </c>
+      <c r="F851" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>59</v>
+      </c>
+      <c r="B852" s="1" t="n">
+        <v>0.7729327359722223</v>
+      </c>
+      <c r="C852" t="n">
+        <v>92</v>
+      </c>
+      <c r="D852" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E852" t="n">
+        <v>0</v>
+      </c>
+      <c r="F852" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>60</v>
+      </c>
+      <c r="B853" s="1" t="n">
+        <v>0.7736254272453703</v>
+      </c>
+      <c r="C853" t="n">
+        <v>92</v>
+      </c>
+      <c r="D853" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E853" t="n">
+        <v>0</v>
+      </c>
+      <c r="F853" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>61</v>
+      </c>
+      <c r="B854" s="1" t="n">
+        <v>0.7743214658796296</v>
+      </c>
+      <c r="C854" t="n">
+        <v>92</v>
+      </c>
+      <c r="D854" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E854" t="n">
+        <v>0</v>
+      </c>
+      <c r="F854" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>62</v>
+      </c>
+      <c r="B855" s="1" t="n">
+        <v>0.7750138947337963</v>
+      </c>
+      <c r="C855" t="n">
+        <v>92</v>
+      </c>
+      <c r="D855" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E855" t="n">
+        <v>0</v>
+      </c>
+      <c r="F855" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>63</v>
+      </c>
+      <c r="B856" s="1" t="n">
+        <v>0.775708582337963</v>
+      </c>
+      <c r="C856" t="n">
+        <v>92</v>
+      </c>
+      <c r="D856" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E856" t="n">
+        <v>0</v>
+      </c>
+      <c r="F856" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>64</v>
+      </c>
+      <c r="B857" s="1" t="n">
+        <v>0.776402602974537</v>
+      </c>
+      <c r="C857" t="n">
+        <v>92</v>
+      </c>
+      <c r="D857" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E857" t="n">
+        <v>0</v>
+      </c>
+      <c r="F857" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>65</v>
+      </c>
+      <c r="B858" s="1" t="n">
+        <v>0.7770971294444445</v>
+      </c>
+      <c r="C858" t="n">
+        <v>92</v>
+      </c>
+      <c r="D858" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E858" t="n">
+        <v>0</v>
+      </c>
+      <c r="F858" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>66</v>
+      </c>
+      <c r="B859" s="1" t="n">
+        <v>0.7777907901041667</v>
+      </c>
+      <c r="C859" t="n">
+        <v>92</v>
+      </c>
+      <c r="D859" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E859" t="n">
+        <v>0</v>
+      </c>
+      <c r="F859" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>67</v>
+      </c>
+      <c r="B860" s="1" t="n">
+        <v>0.7784856731597222</v>
+      </c>
+      <c r="C860" t="n">
+        <v>92</v>
+      </c>
+      <c r="D860" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E860" t="n">
+        <v>0</v>
+      </c>
+      <c r="F860" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>68</v>
+      </c>
+      <c r="B861" s="1" t="n">
+        <v>0.7791785969097222</v>
+      </c>
+      <c r="C861" t="n">
+        <v>92</v>
+      </c>
+      <c r="D861" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E861" t="n">
+        <v>0</v>
+      </c>
+      <c r="F861" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>69</v>
+      </c>
+      <c r="B862" s="1" t="n">
+        <v>0.7798743812268518</v>
+      </c>
+      <c r="C862" t="n">
+        <v>92</v>
+      </c>
+      <c r="D862" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E862" t="n">
+        <v>0</v>
+      </c>
+      <c r="F862" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>70</v>
+      </c>
+      <c r="B863" s="1" t="n">
+        <v>0.7805677750694445</v>
+      </c>
+      <c r="C863" t="n">
+        <v>92</v>
+      </c>
+      <c r="D863" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E863" t="n">
+        <v>0</v>
+      </c>
+      <c r="F863" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>71</v>
+      </c>
+      <c r="B864" s="1" t="n">
+        <v>0.7812597403009259</v>
+      </c>
+      <c r="C864" t="n">
+        <v>92</v>
+      </c>
+      <c r="D864" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E864" t="n">
+        <v>0</v>
+      </c>
+      <c r="F864" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>72</v>
+      </c>
+      <c r="B865" s="1" t="n">
+        <v>0.781955604988426</v>
+      </c>
+      <c r="C865" t="n">
+        <v>92</v>
+      </c>
+      <c r="D865" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E865" t="n">
+        <v>0</v>
+      </c>
+      <c r="F865" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>73</v>
+      </c>
+      <c r="B866" s="1" t="n">
+        <v>0.7826487347685186</v>
+      </c>
+      <c r="C866" t="n">
+        <v>92</v>
+      </c>
+      <c r="D866" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E866" t="n">
+        <v>0</v>
+      </c>
+      <c r="F866" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>74</v>
+      </c>
+      <c r="B867" s="1" t="n">
+        <v>0.7833418656018518</v>
+      </c>
+      <c r="C867" t="n">
+        <v>92</v>
+      </c>
+      <c r="D867" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E867" t="n">
+        <v>0</v>
+      </c>
+      <c r="F867" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>75</v>
+      </c>
+      <c r="B868" s="1" t="n">
+        <v>0.7840377452777777</v>
+      </c>
+      <c r="C868" t="n">
+        <v>92</v>
+      </c>
+      <c r="D868" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E868" t="n">
+        <v>0</v>
+      </c>
+      <c r="F868" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>76</v>
+      </c>
+      <c r="B869" s="1" t="n">
+        <v>0.7847319240162037</v>
+      </c>
+      <c r="C869" t="n">
+        <v>92</v>
+      </c>
+      <c r="D869" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E869" t="n">
+        <v>0</v>
+      </c>
+      <c r="F869" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>77</v>
+      </c>
+      <c r="B870" s="1" t="n">
+        <v>0.7854265995717592</v>
+      </c>
+      <c r="C870" t="n">
+        <v>92</v>
+      </c>
+      <c r="D870" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E870" t="n">
+        <v>0</v>
+      </c>
+      <c r="F870" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>78</v>
+      </c>
+      <c r="B871" s="1" t="n">
+        <v>0.7861190640277779</v>
+      </c>
+      <c r="C871" t="n">
+        <v>92</v>
+      </c>
+      <c r="D871" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E871" t="n">
+        <v>0</v>
+      </c>
+      <c r="F871" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>79</v>
+      </c>
+      <c r="B872" s="1" t="n">
+        <v>0.7868147551273148</v>
+      </c>
+      <c r="C872" t="n">
+        <v>92</v>
+      </c>
+      <c r="D872" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E872" t="n">
+        <v>0</v>
+      </c>
+      <c r="F872" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>80</v>
+      </c>
+      <c r="B873" s="1" t="n">
+        <v>0.7875093629398148</v>
+      </c>
+      <c r="C873" t="n">
+        <v>92</v>
+      </c>
+      <c r="D873" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E873" t="n">
+        <v>0</v>
+      </c>
+      <c r="F873" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>81</v>
+      </c>
+      <c r="B874" s="1" t="n">
+        <v>0.7882024466087962</v>
+      </c>
+      <c r="C874" t="n">
+        <v>92</v>
+      </c>
+      <c r="D874" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E874" t="n">
+        <v>0</v>
+      </c>
+      <c r="F874" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>82</v>
+      </c>
+      <c r="B875" s="1" t="n">
+        <v>0.7888955774074075</v>
+      </c>
+      <c r="C875" t="n">
+        <v>92</v>
+      </c>
+      <c r="D875" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E875" t="n">
+        <v>0</v>
+      </c>
+      <c r="F875" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>83</v>
+      </c>
+      <c r="B876" s="1" t="n">
+        <v>0.7895894486226852</v>
+      </c>
+      <c r="C876" t="n">
+        <v>92</v>
+      </c>
+      <c r="D876" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E876" t="n">
+        <v>0</v>
+      </c>
+      <c r="F876" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>84</v>
+      </c>
+      <c r="B877" s="1" t="n">
+        <v>0.7902756159027777</v>
+      </c>
+      <c r="C877" t="n">
+        <v>92</v>
+      </c>
+      <c r="D877" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E877" t="n">
+        <v>0</v>
+      </c>
+      <c r="F877" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>85</v>
+      </c>
+      <c r="B878" s="1" t="n">
+        <v>0.7909777165393519</v>
+      </c>
+      <c r="C878" t="n">
+        <v>92</v>
+      </c>
+      <c r="D878" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E878" t="n">
+        <v>0</v>
+      </c>
+      <c r="F878" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>86</v>
+      </c>
+      <c r="B879" s="1" t="n">
+        <v>0.7916720690625001</v>
+      </c>
+      <c r="C879" t="n">
+        <v>92</v>
+      </c>
+      <c r="D879" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E879" t="n">
+        <v>0</v>
+      </c>
+      <c r="F879" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>87</v>
+      </c>
+      <c r="B880" s="1" t="n">
+        <v>0.7923684298148148</v>
+      </c>
+      <c r="C880" t="n">
+        <v>92</v>
+      </c>
+      <c r="D880" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E880" t="n">
+        <v>0</v>
+      </c>
+      <c r="F880" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>88</v>
+      </c>
+      <c r="B881" s="1" t="n">
+        <v>0.7930595271990741</v>
+      </c>
+      <c r="C881" t="n">
+        <v>92</v>
+      </c>
+      <c r="D881" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E881" t="n">
+        <v>0</v>
+      </c>
+      <c r="F881" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>89</v>
+      </c>
+      <c r="B882" s="1" t="n">
+        <v>0.7937464909259259</v>
+      </c>
+      <c r="C882" t="n">
+        <v>92</v>
+      </c>
+      <c r="D882" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E882" t="n">
+        <v>0</v>
+      </c>
+      <c r="F882" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>90</v>
+      </c>
+      <c r="B883" s="1" t="n">
+        <v>0.794448657824074</v>
+      </c>
+      <c r="C883" t="n">
+        <v>92</v>
+      </c>
+      <c r="D883" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E883" t="n">
+        <v>0</v>
+      </c>
+      <c r="F883" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>91</v>
+      </c>
+      <c r="B884" s="1" t="n">
+        <v>0.7951418444675925</v>
+      </c>
+      <c r="C884" t="n">
+        <v>92</v>
+      </c>
+      <c r="D884" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E884" t="n">
+        <v>0</v>
+      </c>
+      <c r="F884" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>92</v>
+      </c>
+      <c r="B885" s="1" t="n">
+        <v>0.795829737662037</v>
+      </c>
+      <c r="C885" t="n">
+        <v>92</v>
+      </c>
+      <c r="D885" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E885" t="n">
+        <v>0</v>
+      </c>
+      <c r="F885" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>93</v>
+      </c>
+      <c r="B886" s="1" t="n">
+        <v>0.7965231112731482</v>
+      </c>
+      <c r="C886" t="n">
+        <v>92</v>
+      </c>
+      <c r="D886" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E886" t="n">
+        <v>0</v>
+      </c>
+      <c r="F886" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>94</v>
+      </c>
+      <c r="B887" s="1" t="n">
+        <v>0.7972251969444445</v>
+      </c>
+      <c r="C887" t="n">
+        <v>92</v>
+      </c>
+      <c r="D887" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E887" t="n">
+        <v>0</v>
+      </c>
+      <c r="F887" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>95</v>
+      </c>
+      <c r="B888" s="1" t="n">
+        <v>0.7979202204166667</v>
+      </c>
+      <c r="C888" t="n">
+        <v>92</v>
+      </c>
+      <c r="D888" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E888" t="n">
+        <v>0</v>
+      </c>
+      <c r="F888" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>96</v>
+      </c>
+      <c r="B889" s="1" t="n">
+        <v>0.7986121249421296</v>
+      </c>
+      <c r="C889" t="n">
+        <v>92</v>
+      </c>
+      <c r="D889" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E889" t="n">
+        <v>0</v>
+      </c>
+      <c r="F889" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>97</v>
+      </c>
+      <c r="B890" s="1" t="n">
+        <v>0.7993074121180556</v>
+      </c>
+      <c r="C890" t="n">
+        <v>92</v>
+      </c>
+      <c r="D890" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E890" t="n">
+        <v>0</v>
+      </c>
+      <c r="F890" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>98</v>
+      </c>
+      <c r="B891" s="1" t="n">
+        <v>0.8000005885300927</v>
+      </c>
+      <c r="C891" t="n">
+        <v>92</v>
+      </c>
+      <c r="D891" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E891" t="n">
+        <v>0</v>
+      </c>
+      <c r="F891" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>99</v>
+      </c>
+      <c r="B892" s="1" t="n">
+        <v>0.8006955519791666</v>
+      </c>
+      <c r="C892" t="n">
+        <v>92</v>
+      </c>
+      <c r="D892" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E892" t="n">
+        <v>0</v>
+      </c>
+      <c r="F892" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>100</v>
+      </c>
+      <c r="B893" s="1" t="n">
+        <v>0.8013816522222222</v>
+      </c>
+      <c r="C893" t="n">
+        <v>92</v>
+      </c>
+      <c r="D893" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E893" t="n">
+        <v>0</v>
+      </c>
+      <c r="F893" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>101</v>
+      </c>
+      <c r="B894" s="1" t="n">
+        <v>0.8020847668981482</v>
+      </c>
+      <c r="C894" t="n">
+        <v>92</v>
+      </c>
+      <c r="D894" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E894" t="n">
+        <v>0</v>
+      </c>
+      <c r="F894" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>102</v>
+      </c>
+      <c r="B895" s="1" t="n">
+        <v>0.8027772047916667</v>
+      </c>
+      <c r="C895" t="n">
+        <v>92</v>
+      </c>
+      <c r="D895" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E895" t="n">
+        <v>0</v>
+      </c>
+      <c r="F895" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>103</v>
+      </c>
+      <c r="B896" s="1" t="n">
+        <v>0.8034635338541666</v>
+      </c>
+      <c r="C896" t="n">
+        <v>92</v>
+      </c>
+      <c r="D896" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E896" t="n">
+        <v>0</v>
+      </c>
+      <c r="F896" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>104</v>
+      </c>
+      <c r="B897" s="1" t="n">
+        <v>0.8041658995254629</v>
+      </c>
+      <c r="C897" t="n">
+        <v>92</v>
+      </c>
+      <c r="D897" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E897" t="n">
+        <v>0</v>
+      </c>
+      <c r="F897" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>105</v>
+      </c>
+      <c r="B898" s="1" t="n">
+        <v>0.8048589466782408</v>
+      </c>
+      <c r="C898" t="n">
+        <v>92</v>
+      </c>
+      <c r="D898" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E898" t="n">
+        <v>0</v>
+      </c>
+      <c r="F898" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>106</v>
+      </c>
+      <c r="B899" s="1" t="n">
+        <v>0.8055457604745371</v>
+      </c>
+      <c r="C899" t="n">
+        <v>92</v>
+      </c>
+      <c r="D899" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E899" t="n">
+        <v>0</v>
+      </c>
+      <c r="F899" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>107</v>
+      </c>
+      <c r="B900" s="1" t="n">
+        <v>0.8062475351851851</v>
+      </c>
+      <c r="C900" t="n">
+        <v>92</v>
+      </c>
+      <c r="D900" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E900" t="n">
+        <v>0</v>
+      </c>
+      <c r="F900" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>108</v>
+      </c>
+      <c r="B901" s="1" t="n">
+        <v>0.8069407278703703</v>
+      </c>
+      <c r="C901" t="n">
+        <v>92</v>
+      </c>
+      <c r="D901" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E901" t="n">
+        <v>0</v>
+      </c>
+      <c r="F901" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>109</v>
+      </c>
+      <c r="B902" s="1" t="n">
+        <v>0.8076381618981481</v>
+      </c>
+      <c r="C902" t="n">
+        <v>92</v>
+      </c>
+      <c r="D902" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E902" t="n">
+        <v>0</v>
+      </c>
+      <c r="F902" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>110</v>
+      </c>
+      <c r="B903" s="1" t="n">
+        <v>0.808329049699074</v>
+      </c>
+      <c r="C903" t="n">
+        <v>92</v>
+      </c>
+      <c r="D903" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E903" t="n">
+        <v>0</v>
+      </c>
+      <c r="F903" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>111</v>
+      </c>
+      <c r="B904" s="1" t="n">
+        <v>0.809024867650463</v>
+      </c>
+      <c r="C904" t="n">
+        <v>92</v>
+      </c>
+      <c r="D904" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E904" t="n">
+        <v>0</v>
+      </c>
+      <c r="F904" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>112</v>
+      </c>
+      <c r="B905" s="1" t="n">
+        <v>0.8097104465972222</v>
+      </c>
+      <c r="C905" t="n">
+        <v>92</v>
+      </c>
+      <c r="D905" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E905" t="n">
+        <v>0</v>
+      </c>
+      <c r="F905" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>113</v>
+      </c>
+      <c r="B906" s="1" t="n">
+        <v>0.8104132159143519</v>
+      </c>
+      <c r="C906" t="n">
+        <v>92</v>
+      </c>
+      <c r="D906" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E906" t="n">
+        <v>0</v>
+      </c>
+      <c r="F906" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>114</v>
+      </c>
+      <c r="B907" s="1" t="n">
+        <v>0.8111066702199075</v>
+      </c>
+      <c r="C907" t="n">
+        <v>92</v>
+      </c>
+      <c r="D907" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E907" t="n">
+        <v>0</v>
+      </c>
+      <c r="F907" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>115</v>
+      </c>
+      <c r="B908" s="1" t="n">
+        <v>0.8118029032638888</v>
+      </c>
+      <c r="C908" t="n">
+        <v>92</v>
+      </c>
+      <c r="D908" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E908" t="n">
+        <v>0</v>
+      </c>
+      <c r="F908" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>116</v>
+      </c>
+      <c r="B909" s="1" t="n">
+        <v>0.8124867744444444</v>
+      </c>
+      <c r="C909" t="n">
+        <v>92</v>
+      </c>
+      <c r="D909" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E909" t="n">
+        <v>0</v>
+      </c>
+      <c r="F909" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>117</v>
+      </c>
+      <c r="B910" s="1" t="n">
+        <v>0.8131876092708333</v>
+      </c>
+      <c r="C910" t="n">
+        <v>92</v>
+      </c>
+      <c r="D910" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E910" t="n">
+        <v>0</v>
+      </c>
+      <c r="F910" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>118</v>
+      </c>
+      <c r="B911" s="1" t="n">
+        <v>0.8138753131365741</v>
+      </c>
+      <c r="C911" t="n">
+        <v>92</v>
+      </c>
+      <c r="D911" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E911" t="n">
+        <v>0</v>
+      </c>
+      <c r="F911" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>119</v>
+      </c>
+      <c r="B912" s="1" t="n">
+        <v>0.8145789371875001</v>
+      </c>
+      <c r="C912" t="n">
+        <v>92</v>
+      </c>
+      <c r="D912" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E912" t="n">
+        <v>0</v>
+      </c>
+      <c r="F912" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>120</v>
+      </c>
+      <c r="B913" s="1" t="n">
+        <v>0.8152634804050926</v>
+      </c>
+      <c r="C913" t="n">
+        <v>92</v>
+      </c>
+      <c r="D913" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E913" t="n">
+        <v>0</v>
+      </c>
+      <c r="F913" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>121</v>
+      </c>
+      <c r="B914" s="1" t="n">
+        <v>0.8159657804166667</v>
+      </c>
+      <c r="C914" t="n">
+        <v>92</v>
+      </c>
+      <c r="D914" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E914" t="n">
+        <v>0</v>
+      </c>
+      <c r="F914" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>122</v>
+      </c>
+      <c r="B915" s="1" t="n">
+        <v>0.8166596408680555</v>
+      </c>
+      <c r="C915" t="n">
+        <v>92</v>
+      </c>
+      <c r="D915" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E915" t="n">
+        <v>0</v>
+      </c>
+      <c r="F915" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>123</v>
+      </c>
+      <c r="B916" s="1" t="n">
+        <v>0.8173524684953705</v>
+      </c>
+      <c r="C916" t="n">
+        <v>92</v>
+      </c>
+      <c r="D916" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E916" t="n">
+        <v>0</v>
+      </c>
+      <c r="F916" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>124</v>
+      </c>
+      <c r="B917" s="1" t="n">
+        <v>0.8180398246759258</v>
+      </c>
+      <c r="C917" t="n">
+        <v>92</v>
+      </c>
+      <c r="D917" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E917" t="n">
+        <v>0</v>
+      </c>
+      <c r="F917" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>125</v>
+      </c>
+      <c r="B918" s="1" t="n">
+        <v>0.8187340849652778</v>
+      </c>
+      <c r="C918" t="n">
+        <v>92</v>
+      </c>
+      <c r="D918" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E918" t="n">
+        <v>0</v>
+      </c>
+      <c r="F918" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>126</v>
+      </c>
+      <c r="B919" s="1" t="n">
+        <v>0.8194339608333333</v>
+      </c>
+      <c r="C919" t="n">
+        <v>92</v>
+      </c>
+      <c r="D919" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E919" t="n">
+        <v>0</v>
+      </c>
+      <c r="F919" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>127</v>
+      </c>
+      <c r="B920" s="1" t="n">
+        <v>0.8201285892939815</v>
+      </c>
+      <c r="C920" t="n">
+        <v>92</v>
+      </c>
+      <c r="D920" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E920" t="n">
+        <v>0</v>
+      </c>
+      <c r="F920" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>128</v>
+      </c>
+      <c r="B921" s="1" t="n">
+        <v>0.8208239110532407</v>
+      </c>
+      <c r="C921" t="n">
+        <v>92</v>
+      </c>
+      <c r="D921" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E921" t="n">
+        <v>0</v>
+      </c>
+      <c r="F921" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>129</v>
+      </c>
+      <c r="B922" s="1" t="n">
+        <v>0.8215187762037036</v>
+      </c>
+      <c r="C922" t="n">
+        <v>92</v>
+      </c>
+      <c r="D922" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E922" t="n">
+        <v>0</v>
+      </c>
+      <c r="F922" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>130</v>
+      </c>
+      <c r="B923" s="1" t="n">
+        <v>0.8222041011342593</v>
+      </c>
+      <c r="C923" t="n">
+        <v>92</v>
+      </c>
+      <c r="D923" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E923" t="n">
+        <v>0</v>
+      </c>
+      <c r="F923" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>131</v>
+      </c>
+      <c r="B924" s="1" t="n">
+        <v>0.8228987908680555</v>
+      </c>
+      <c r="C924" t="n">
+        <v>92</v>
+      </c>
+      <c r="D924" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E924" t="n">
+        <v>0</v>
+      </c>
+      <c r="F924" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>132</v>
+      </c>
+      <c r="B925" s="1" t="n">
+        <v>0.8235987996527777</v>
+      </c>
+      <c r="C925" t="n">
+        <v>92</v>
+      </c>
+      <c r="D925" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E925" t="n">
+        <v>0</v>
+      </c>
+      <c r="F925" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>133</v>
+      </c>
+      <c r="B926" s="1" t="n">
+        <v>0.8242866290625001</v>
+      </c>
+      <c r="C926" t="n">
+        <v>92</v>
+      </c>
+      <c r="D926" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E926" t="n">
+        <v>0</v>
+      </c>
+      <c r="F926" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>134</v>
+      </c>
+      <c r="B927" s="1" t="n">
+        <v>0.8249804860879629</v>
+      </c>
+      <c r="C927" t="n">
+        <v>92</v>
+      </c>
+      <c r="D927" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E927" t="n">
+        <v>0</v>
+      </c>
+      <c r="F927" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>135</v>
+      </c>
+      <c r="B928" s="1" t="n">
+        <v>0.825682376087963</v>
+      </c>
+      <c r="C928" t="n">
+        <v>92</v>
+      </c>
+      <c r="D928" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E928" t="n">
+        <v>0</v>
+      </c>
+      <c r="F928" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>136</v>
+      </c>
+      <c r="B929" s="1" t="n">
+        <v>0.8263745111458334</v>
+      </c>
+      <c r="C929" t="n">
+        <v>92</v>
+      </c>
+      <c r="D929" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E929" t="n">
+        <v>0</v>
+      </c>
+      <c r="F929" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>137</v>
+      </c>
+      <c r="B930" s="1" t="n">
+        <v>0.8270696485879628</v>
+      </c>
+      <c r="C930" t="n">
+        <v>92</v>
+      </c>
+      <c r="D930" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E930" t="n">
+        <v>0</v>
+      </c>
+      <c r="F930" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>138</v>
+      </c>
+      <c r="B931" s="1" t="n">
+        <v>0.8277628567824074</v>
+      </c>
+      <c r="C931" t="n">
+        <v>92</v>
+      </c>
+      <c r="D931" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E931" t="n">
+        <v>0</v>
+      </c>
+      <c r="F931" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>139</v>
+      </c>
+      <c r="B932" s="1" t="n">
+        <v>0.8284586167245371</v>
+      </c>
+      <c r="C932" t="n">
+        <v>92</v>
+      </c>
+      <c r="D932" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E932" t="n">
+        <v>0</v>
+      </c>
+      <c r="F932" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>140</v>
+      </c>
+      <c r="B933" s="1" t="n">
+        <v>0.8291513863078703</v>
+      </c>
+      <c r="C933" t="n">
+        <v>92</v>
+      </c>
+      <c r="D933" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E933" t="n">
+        <v>0</v>
+      </c>
+      <c r="F933" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>141</v>
+      </c>
+      <c r="B934" s="1" t="n">
+        <v>0.8298394255671296</v>
+      </c>
+      <c r="C934" t="n">
+        <v>92</v>
+      </c>
+      <c r="D934" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E934" t="n">
+        <v>0</v>
+      </c>
+      <c r="F934" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>142</v>
+      </c>
+      <c r="B935" s="1" t="n">
+        <v>0.8305336502662036</v>
+      </c>
+      <c r="C935" t="n">
+        <v>92</v>
+      </c>
+      <c r="D935" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E935" t="n">
+        <v>0</v>
+      </c>
+      <c r="F935" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>143</v>
+      </c>
+      <c r="B936" s="1" t="n">
+        <v>0.8312320075231482</v>
+      </c>
+      <c r="C936" t="n">
+        <v>92</v>
+      </c>
+      <c r="D936" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E936" t="n">
+        <v>0</v>
+      </c>
+      <c r="F936" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>144</v>
+      </c>
+      <c r="B937" s="1" t="n">
+        <v>0.8319218476851853</v>
+      </c>
+      <c r="C937" t="n">
+        <v>92</v>
+      </c>
+      <c r="D937" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E937" t="n">
+        <v>0</v>
+      </c>
+      <c r="F937" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>145</v>
+      </c>
+      <c r="B938" s="1" t="n">
+        <v>0.8326218264120371</v>
+      </c>
+      <c r="C938" t="n">
+        <v>92</v>
+      </c>
+      <c r="D938" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E938" t="n">
+        <v>0</v>
+      </c>
+      <c r="F938" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>146</v>
+      </c>
+      <c r="B939" s="1" t="n">
+        <v>0.8333185913078703</v>
+      </c>
+      <c r="C939" t="n">
+        <v>92</v>
+      </c>
+      <c r="D939" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E939" t="n">
+        <v>0</v>
+      </c>
+      <c r="F939" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>147</v>
+      </c>
+      <c r="B940" s="1" t="n">
+        <v>0.8340113506944445</v>
+      </c>
+      <c r="C940" t="n">
+        <v>92</v>
+      </c>
+      <c r="D940" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E940" t="n">
+        <v>0</v>
+      </c>
+      <c r="F940" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>148</v>
+      </c>
+      <c r="B941" s="1" t="n">
+        <v>0.8346981199537037</v>
+      </c>
+      <c r="C941" t="n">
+        <v>92</v>
+      </c>
+      <c r="D941" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E941" t="n">
+        <v>0</v>
+      </c>
+      <c r="F941" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>149</v>
+      </c>
+      <c r="B942" s="1" t="n">
+        <v>0.8353981905787037</v>
+      </c>
+      <c r="C942" t="n">
+        <v>92</v>
+      </c>
+      <c r="D942" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E942" t="n">
+        <v>0</v>
+      </c>
+      <c r="F942" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>150</v>
+      </c>
+      <c r="B943" s="1" t="n">
+        <v>0.8360913398958334</v>
+      </c>
+      <c r="C943" t="n">
+        <v>92</v>
+      </c>
+      <c r="D943" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E943" t="n">
+        <v>0</v>
+      </c>
+      <c r="F943" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>151</v>
+      </c>
+      <c r="B944" s="1" t="n">
+        <v>0.8367875477777779</v>
+      </c>
+      <c r="C944" t="n">
+        <v>92</v>
+      </c>
+      <c r="D944" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E944" t="n">
+        <v>0</v>
+      </c>
+      <c r="F944" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>152</v>
+      </c>
+      <c r="B945" s="1" t="n">
+        <v>0.8374803188657407</v>
+      </c>
+      <c r="C945" t="n">
+        <v>92</v>
+      </c>
+      <c r="D945" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E945" t="n">
+        <v>0</v>
+      </c>
+      <c r="F945" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>153</v>
+      </c>
+      <c r="B946" s="1" t="n">
+        <v>0.8381728167708333</v>
+      </c>
+      <c r="C946" t="n">
+        <v>92</v>
+      </c>
+      <c r="D946" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E946" t="n">
+        <v>0</v>
+      </c>
+      <c r="F946" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>154</v>
+      </c>
+      <c r="B947" s="1" t="n">
+        <v>0.8388629313541666</v>
+      </c>
+      <c r="C947" t="n">
+        <v>92</v>
+      </c>
+      <c r="D947" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E947" t="n">
+        <v>0</v>
+      </c>
+      <c r="F947" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>155</v>
+      </c>
+      <c r="B948" s="1" t="n">
+        <v>0.8395568124652778</v>
+      </c>
+      <c r="C948" t="n">
+        <v>92</v>
+      </c>
+      <c r="D948" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E948" t="n">
+        <v>0</v>
+      </c>
+      <c r="F948" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>156</v>
+      </c>
+      <c r="B949" s="1" t="n">
+        <v>0.8402560682523148</v>
+      </c>
+      <c r="C949" t="n">
+        <v>92</v>
+      </c>
+      <c r="D949" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E949" t="n">
+        <v>0</v>
+      </c>
+      <c r="F949" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>157</v>
+      </c>
+      <c r="B950" s="1" t="n">
+        <v>0.8409515064467592</v>
+      </c>
+      <c r="C950" t="n">
+        <v>92</v>
+      </c>
+      <c r="D950" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E950" t="n">
+        <v>0</v>
+      </c>
+      <c r="F950" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>158</v>
+      </c>
+      <c r="B951" s="1" t="n">
+        <v>0.8416455439467592</v>
+      </c>
+      <c r="C951" t="n">
+        <v>92</v>
+      </c>
+      <c r="D951" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E951" t="n">
+        <v>0</v>
+      </c>
+      <c r="F951" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>159</v>
+      </c>
+      <c r="B952" s="1" t="n">
+        <v>0.8423332104513889</v>
+      </c>
+      <c r="C952" t="n">
+        <v>92</v>
+      </c>
+      <c r="D952" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E952" t="n">
+        <v>0</v>
+      </c>
+      <c r="F952" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>160</v>
+      </c>
+      <c r="B953" s="1" t="n">
+        <v>0.8430353058101852</v>
+      </c>
+      <c r="C953" t="n">
+        <v>92</v>
+      </c>
+      <c r="D953" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E953" t="n">
+        <v>0</v>
+      </c>
+      <c r="F953" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>161</v>
+      </c>
+      <c r="B954" s="1" t="n">
+        <v>0.8437215166435186</v>
+      </c>
+      <c r="C954" t="n">
+        <v>92</v>
+      </c>
+      <c r="D954" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E954" t="n">
+        <v>0</v>
+      </c>
+      <c r="F954" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>162</v>
+      </c>
+      <c r="B955" s="1" t="n">
+        <v>0.8444231383564814</v>
+      </c>
+      <c r="C955" t="n">
+        <v>92</v>
+      </c>
+      <c r="D955" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E955" t="n">
+        <v>0</v>
+      </c>
+      <c r="F955" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>163</v>
+      </c>
+      <c r="B956" s="1" t="n">
+        <v>0.8451095454398149</v>
+      </c>
+      <c r="C956" t="n">
+        <v>92</v>
+      </c>
+      <c r="D956" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E956" t="n">
+        <v>0</v>
+      </c>
+      <c r="F956" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>164</v>
+      </c>
+      <c r="B957" s="1" t="n">
+        <v>0.8458090891087964</v>
+      </c>
+      <c r="C957" t="n">
+        <v>92</v>
+      </c>
+      <c r="D957" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E957" t="n">
+        <v>0</v>
+      </c>
+      <c r="F957" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>165</v>
+      </c>
+      <c r="B958" s="1" t="n">
+        <v>0.8465057324652778</v>
+      </c>
+      <c r="C958" t="n">
+        <v>92</v>
+      </c>
+      <c r="D958" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E958" t="n">
+        <v>0</v>
+      </c>
+      <c r="F958" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>166</v>
+      </c>
+      <c r="B959" s="1" t="n">
+        <v>0.847198916087963</v>
+      </c>
+      <c r="C959" t="n">
+        <v>92</v>
+      </c>
+      <c r="D959" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E959" t="n">
+        <v>0</v>
+      </c>
+      <c r="F959" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>167</v>
+      </c>
+      <c r="B960" s="1" t="n">
+        <v>0.8478909824537038</v>
+      </c>
+      <c r="C960" t="n">
+        <v>92</v>
+      </c>
+      <c r="D960" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E960" t="n">
+        <v>0</v>
+      </c>
+      <c r="F960" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>168</v>
+      </c>
+      <c r="B961" s="1" t="n">
+        <v>0.8485877894328703</v>
+      </c>
+      <c r="C961" t="n">
+        <v>92</v>
+      </c>
+      <c r="D961" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E961" t="n">
+        <v>0</v>
+      </c>
+      <c r="F961" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>169</v>
+      </c>
+      <c r="B962" s="1" t="n">
+        <v>0.8492788062962963</v>
+      </c>
+      <c r="C962" t="n">
+        <v>92</v>
+      </c>
+      <c r="D962" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E962" t="n">
+        <v>0</v>
+      </c>
+      <c r="F962" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>170</v>
+      </c>
+      <c r="B963" s="1" t="n">
+        <v>0.8499756132407408</v>
+      </c>
+      <c r="C963" t="n">
+        <v>92</v>
+      </c>
+      <c r="D963" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E963" t="n">
+        <v>0</v>
+      </c>
+      <c r="F963" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>171</v>
+      </c>
+      <c r="B964" s="1" t="n">
+        <v>0.8506723678125</v>
+      </c>
+      <c r="C964" t="n">
+        <v>92</v>
+      </c>
+      <c r="D964" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E964" t="n">
+        <v>0</v>
+      </c>
+      <c r="F964" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>172</v>
+      </c>
+      <c r="B965" s="1" t="n">
+        <v>0.8513614300810185</v>
+      </c>
+      <c r="C965" t="n">
+        <v>92</v>
+      </c>
+      <c r="D965" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E965" t="n">
+        <v>0</v>
+      </c>
+      <c r="F965" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>173</v>
+      </c>
+      <c r="B966" s="1" t="n">
+        <v>0.8520506004976852</v>
+      </c>
+      <c r="C966" t="n">
+        <v>92</v>
+      </c>
+      <c r="D966" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E966" t="n">
+        <v>0</v>
+      </c>
+      <c r="F966" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>174</v>
+      </c>
+      <c r="B967" s="1" t="n">
+        <v>0.8527488845949074</v>
+      </c>
+      <c r="C967" t="n">
+        <v>92</v>
+      </c>
+      <c r="D967" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E967" t="n">
+        <v>0</v>
+      </c>
+      <c r="F967" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>175</v>
+      </c>
+      <c r="B968" s="1" t="n">
+        <v>0.8534471212615742</v>
+      </c>
+      <c r="C968" t="n">
+        <v>92</v>
+      </c>
+      <c r="D968" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E968" t="n">
+        <v>0</v>
+      </c>
+      <c r="F968" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>176</v>
+      </c>
+      <c r="B969" s="1" t="n">
+        <v>0.854139657199074</v>
+      </c>
+      <c r="C969" t="n">
+        <v>92</v>
+      </c>
+      <c r="D969" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E969" t="n">
+        <v>0</v>
+      </c>
+      <c r="F969" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>177</v>
+      </c>
+      <c r="B970" s="1" t="n">
+        <v>0.8548324961689815</v>
+      </c>
+      <c r="C970" t="n">
+        <v>92</v>
+      </c>
+      <c r="D970" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E970" t="n">
+        <v>0</v>
+      </c>
+      <c r="F970" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>178</v>
+      </c>
+      <c r="B971" s="1" t="n">
+        <v>0.8555287180671296</v>
+      </c>
+      <c r="C971" t="n">
+        <v>92</v>
+      </c>
+      <c r="D971" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E971" t="n">
+        <v>0</v>
+      </c>
+      <c r="F971" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>179</v>
+      </c>
+      <c r="B972" s="1" t="n">
+        <v>0.8562204142939814</v>
+      </c>
+      <c r="C972" t="n">
+        <v>92</v>
+      </c>
+      <c r="D972" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E972" t="n">
+        <v>0</v>
+      </c>
+      <c r="F972" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>180</v>
+      </c>
+      <c r="B973" s="1" t="n">
+        <v>0.8569167834837963</v>
+      </c>
+      <c r="C973" t="n">
+        <v>92</v>
+      </c>
+      <c r="D973" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E973" t="n">
+        <v>0</v>
+      </c>
+      <c r="F973" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>181</v>
+      </c>
+      <c r="B974" s="1" t="n">
+        <v>0.8576103807870371</v>
+      </c>
+      <c r="C974" t="n">
+        <v>92</v>
+      </c>
+      <c r="D974" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E974" t="n">
+        <v>0</v>
+      </c>
+      <c r="F974" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>182</v>
+      </c>
+      <c r="B975" s="1" t="n">
+        <v>0.8583028381018519</v>
+      </c>
+      <c r="C975" t="n">
+        <v>92</v>
+      </c>
+      <c r="D975" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E975" t="n">
+        <v>0</v>
+      </c>
+      <c r="F975" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>183</v>
+      </c>
+      <c r="B976" s="1" t="n">
+        <v>0.8589972927199074</v>
+      </c>
+      <c r="C976" t="n">
+        <v>92</v>
+      </c>
+      <c r="D976" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E976" t="n">
+        <v>0</v>
+      </c>
+      <c r="F976" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>184</v>
+      </c>
+      <c r="B977" s="1" t="n">
+        <v>0.859691767673611</v>
+      </c>
+      <c r="C977" t="n">
+        <v>92</v>
+      </c>
+      <c r="D977" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E977" t="n">
+        <v>0</v>
+      </c>
+      <c r="F977" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>185</v>
+      </c>
+      <c r="B978" s="1" t="n">
+        <v>0.860385164050926</v>
+      </c>
+      <c r="C978" t="n">
+        <v>92</v>
+      </c>
+      <c r="D978" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E978" t="n">
+        <v>0</v>
+      </c>
+      <c r="F978" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>186</v>
+      </c>
+      <c r="B979" s="1" t="n">
+        <v>0.8610791770370371</v>
+      </c>
+      <c r="C979" t="n">
+        <v>92</v>
+      </c>
+      <c r="D979" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E979" t="n">
+        <v>0</v>
+      </c>
+      <c r="F979" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>187</v>
+      </c>
+      <c r="B980" s="1" t="n">
+        <v>0.8617738243750001</v>
+      </c>
+      <c r="C980" t="n">
+        <v>92</v>
+      </c>
+      <c r="D980" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E980" t="n">
+        <v>0</v>
+      </c>
+      <c r="F980" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>188</v>
+      </c>
+      <c r="B981" s="1" t="n">
+        <v>0.8624688214583333</v>
+      </c>
+      <c r="C981" t="n">
+        <v>92</v>
+      </c>
+      <c r="D981" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E981" t="n">
+        <v>0</v>
+      </c>
+      <c r="F981" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>189</v>
+      </c>
+      <c r="B982" s="1" t="n">
+        <v>0.8631615649189815</v>
+      </c>
+      <c r="C982" t="n">
+        <v>92</v>
+      </c>
+      <c r="D982" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E982" t="n">
+        <v>0</v>
+      </c>
+      <c r="F982" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>190</v>
+      </c>
+      <c r="B983" s="1" t="n">
+        <v>0.8638560194791666</v>
+      </c>
+      <c r="C983" t="n">
+        <v>92</v>
+      </c>
+      <c r="D983" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E983" t="n">
+        <v>0</v>
+      </c>
+      <c r="F983" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>191</v>
+      </c>
+      <c r="B984" s="1" t="n">
+        <v>0.8645491449305556</v>
+      </c>
+      <c r="C984" t="n">
+        <v>92</v>
+      </c>
+      <c r="D984" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E984" t="n">
+        <v>0</v>
+      </c>
+      <c r="F984" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>192</v>
+      </c>
+      <c r="B985" s="1" t="n">
+        <v>0.8652470011111111</v>
+      </c>
+      <c r="C985" t="n">
+        <v>92</v>
+      </c>
+      <c r="D985" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E985" t="n">
+        <v>0</v>
+      </c>
+      <c r="F985" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>193</v>
+      </c>
+      <c r="B986" s="1" t="n">
+        <v>0.8659386241550926</v>
+      </c>
+      <c r="C986" t="n">
+        <v>92</v>
+      </c>
+      <c r="D986" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E986" t="n">
+        <v>0</v>
+      </c>
+      <c r="F986" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>194</v>
+      </c>
+      <c r="B987" s="1" t="n">
+        <v>0.8666318049537036</v>
+      </c>
+      <c r="C987" t="n">
+        <v>92</v>
+      </c>
+      <c r="D987" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E987" t="n">
+        <v>0</v>
+      </c>
+      <c r="F987" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>195</v>
+      </c>
+      <c r="B988" s="1" t="n">
+        <v>0.8673261743171297</v>
+      </c>
+      <c r="C988" t="n">
+        <v>92</v>
+      </c>
+      <c r="D988" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E988" t="n">
+        <v>0</v>
+      </c>
+      <c r="F988" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>196</v>
+      </c>
+      <c r="B989" s="1" t="n">
+        <v>0.8680211107291667</v>
+      </c>
+      <c r="C989" t="n">
+        <v>92</v>
+      </c>
+      <c r="D989" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E989" t="n">
+        <v>0</v>
+      </c>
+      <c r="F989" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>197</v>
+      </c>
+      <c r="B990" s="1" t="n">
+        <v>0.8687149736805555</v>
+      </c>
+      <c r="C990" t="n">
+        <v>92</v>
+      </c>
+      <c r="D990" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E990" t="n">
+        <v>0</v>
+      </c>
+      <c r="F990" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>198</v>
+      </c>
+      <c r="B991" s="1" t="n">
+        <v>0.8694083621296297</v>
+      </c>
+      <c r="C991" t="n">
+        <v>92</v>
+      </c>
+      <c r="D991" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E991" t="n">
+        <v>0</v>
+      </c>
+      <c r="F991" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>199</v>
+      </c>
+      <c r="B992" s="1" t="n">
+        <v>0.8701044397337964</v>
+      </c>
+      <c r="C992" t="n">
+        <v>92</v>
+      </c>
+      <c r="D992" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E992" t="n">
+        <v>0</v>
+      </c>
+      <c r="F992" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>200</v>
+      </c>
+      <c r="B993" s="1" t="n">
+        <v>0.8707968935185184</v>
+      </c>
+      <c r="C993" t="n">
+        <v>92</v>
+      </c>
+      <c r="D993" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E993" t="n">
+        <v>0</v>
+      </c>
+      <c r="F993" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>201</v>
+      </c>
+      <c r="B994" s="1" t="n">
+        <v>0.871488769537037</v>
+      </c>
+      <c r="C994" t="n">
+        <v>92</v>
+      </c>
+      <c r="D994" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E994" t="n">
+        <v>0</v>
+      </c>
+      <c r="F994" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>202</v>
+      </c>
+      <c r="B995" s="1" t="n">
+        <v>0.8721898268402779</v>
+      </c>
+      <c r="C995" t="n">
+        <v>92</v>
+      </c>
+      <c r="D995" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E995" t="n">
+        <v>0</v>
+      </c>
+      <c r="F995" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>203</v>
+      </c>
+      <c r="B996" s="1" t="n">
+        <v>0.8728793717939816</v>
+      </c>
+      <c r="C996" t="n">
+        <v>92</v>
+      </c>
+      <c r="D996" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E996" t="n">
+        <v>0</v>
+      </c>
+      <c r="F996" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>204</v>
+      </c>
+      <c r="B997" s="1" t="n">
+        <v>0.8735730510069445</v>
+      </c>
+      <c r="C997" t="n">
+        <v>92</v>
+      </c>
+      <c r="D997" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E997" t="n">
+        <v>0</v>
+      </c>
+      <c r="F997" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>205</v>
+      </c>
+      <c r="B998" s="1" t="n">
+        <v>0.8742663143518519</v>
+      </c>
+      <c r="C998" t="n">
+        <v>92</v>
+      </c>
+      <c r="D998" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E998" t="n">
+        <v>0</v>
+      </c>
+      <c r="F998" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>206</v>
+      </c>
+      <c r="B999" s="1" t="n">
+        <v>0.8749602217824075</v>
+      </c>
+      <c r="C999" t="n">
+        <v>92</v>
+      </c>
+      <c r="D999" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E999" t="n">
+        <v>0</v>
+      </c>
+      <c r="F999" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>207</v>
+      </c>
+      <c r="B1000" s="1" t="n">
+        <v>0.8756551122453704</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>208</v>
+      </c>
+      <c r="B1001" s="1" t="n">
+        <v>0.8763493089467593</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>209</v>
+      </c>
+      <c r="B1002" s="1" t="n">
+        <v>0.8770437242013889</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>210</v>
+      </c>
+      <c r="B1003" s="1" t="n">
+        <v>0.8777373668055555</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>211</v>
+      </c>
+      <c r="B1004" s="1" t="n">
+        <v>0.8784326703240741</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>212</v>
+      </c>
+      <c r="B1005" s="1" t="n">
+        <v>0.879123844548611</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>213</v>
+      </c>
+      <c r="B1006" s="1" t="n">
+        <v>0.8798211382175926</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>214</v>
+      </c>
+      <c r="B1007" s="1" t="n">
+        <v>0.8805140248032408</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>215</v>
+      </c>
+      <c r="B1008" s="1" t="n">
+        <v>0.881210913125</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>217</v>
+      </c>
+      <c r="B1009" s="1" t="n">
+        <v>0.8825960320370371</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>218</v>
+      </c>
+      <c r="B1010" s="1" t="n">
+        <v>0.883290075462963</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>219</v>
+      </c>
+      <c r="B1011" s="1" t="n">
+        <v>0.8839834538888888</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>220</v>
+      </c>
+      <c r="B1012" s="1" t="n">
+        <v>0.8846780719907407</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>221</v>
+      </c>
+      <c r="B1013" s="1" t="n">
+        <v>0.885372953136574</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>222</v>
+      </c>
+      <c r="B1014" s="1" t="n">
+        <v>0.8860675411921296</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>223</v>
+      </c>
+      <c r="B1015" s="1" t="n">
+        <v>0.8867618204282408</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>224</v>
+      </c>
+      <c r="B1016" s="1" t="n">
+        <v>0.8874567893518519</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>225</v>
+      </c>
+      <c r="B1017" s="1" t="n">
+        <v>0.8881486367708332</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>226</v>
+      </c>
+      <c r="B1018" s="1" t="n">
+        <v>0.8888408471643519</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>227</v>
+      </c>
+      <c r="B1019" s="1" t="n">
+        <v>0.8895344080439815</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>228</v>
+      </c>
+      <c r="B1020" s="1" t="n">
+        <v>0.8902318386226853</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>229</v>
+      </c>
+      <c r="B1021" s="1" t="n">
+        <v>0.8909246722800925</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1022" s="1" t="n">
+        <v>0.8916191790625</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>231</v>
+      </c>
+      <c r="B1023" s="1" t="n">
+        <v>0.8923141937731481</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>232</v>
+      </c>
+      <c r="B1024" s="1" t="n">
+        <v>0.8930078238425926</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>233</v>
+      </c>
+      <c r="B1025" s="1" t="n">
+        <v>0.8937003790046297</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>234</v>
+      </c>
+      <c r="B1026" s="1" t="n">
+        <v>0.8943967012152778</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>235</v>
+      </c>
+      <c r="B1027" s="1" t="n">
+        <v>0.8950891180092593</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>236</v>
+      </c>
+      <c r="B1028" s="1" t="n">
+        <v>0.8957837750925927</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>237</v>
+      </c>
+      <c r="B1029" s="1" t="n">
+        <v>0.8964788607175926</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>238</v>
+      </c>
+      <c r="B1030" s="1" t="n">
+        <v>0.8971710381250001</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>239</v>
+      </c>
+      <c r="B1031" s="1" t="n">
+        <v>0.8978668785648148</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>240</v>
+      </c>
+      <c r="B1032" s="1" t="n">
+        <v>0.8985606371643519</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>241</v>
+      </c>
+      <c r="B1033" s="1" t="n">
+        <v>0.8992539581365742</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>242</v>
+      </c>
+      <c r="B1034" s="1" t="n">
+        <v>0.8999500368171296</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>243</v>
+      </c>
+      <c r="B1035" s="1" t="n">
+        <v>0.9006404034375</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>244</v>
+      </c>
+      <c r="B1036" s="1" t="n">
+        <v>0.901338387662037</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>245</v>
+      </c>
+      <c r="B1037" s="1" t="n">
+        <v>0.9020320765625</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>246</v>
+      </c>
+      <c r="B1038" s="1" t="n">
+        <v>0.9027241604745371</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>247</v>
+      </c>
+      <c r="B1039" s="1" t="n">
+        <v>0.903417688449074</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>248</v>
+      </c>
+      <c r="B1040" s="1" t="n">
+        <v>0.9041122513888888</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>249</v>
+      </c>
+      <c r="B1041" s="1" t="n">
+        <v>0.9048078791550925</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>250</v>
+      </c>
+      <c r="B1042" s="1" t="n">
+        <v>0.9055000561342592</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>251</v>
+      </c>
+      <c r="B1043" s="1" t="n">
+        <v>0.906196601574074</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>252</v>
+      </c>
+      <c r="B1044" s="1" t="n">
+        <v>0.9068885214583334</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>253</v>
+      </c>
+      <c r="B1045" s="1" t="n">
+        <v>0.9075863976620371</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>254</v>
+      </c>
+      <c r="B1046" s="1" t="n">
+        <v>0.908277293113426</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1047" s="1" t="n">
+        <v>0.9089707613078704</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1048" s="1" t="n">
+        <v>0.909663754212963</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1049" s="1" t="n">
+        <v>0.9103589764236111</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1050" s="1" t="n">
+        <v>0.9110547170370371</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>4</v>
+      </c>
+      <c r="B1051" s="1" t="n">
+        <v>0.9117479552314814</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>5</v>
+      </c>
+      <c r="B1052" s="1" t="n">
+        <v>0.9124430384143519</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1053" s="1" t="n">
+        <v>0.9131361446527777</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>7</v>
+      </c>
+      <c r="B1054" s="1" t="n">
+        <v>0.9138282150810184</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1055" s="1" t="n">
+        <v>0.9145257934953704</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1056" s="1" t="n">
+        <v>0.9152182470486111</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1057" s="1" t="n">
+        <v>0.9159109745486111</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>11</v>
+      </c>
+      <c r="B1058" s="1" t="n">
+        <v>0.9166055176273149</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1059" s="1" t="n">
+        <v>0.9173004754282408</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>13</v>
+      </c>
+      <c r="B1060" s="1" t="n">
+        <v>0.9179944960300926</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>14</v>
+      </c>
+      <c r="B1061" s="1" t="n">
+        <v>0.9186888404513889</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>15</v>
+      </c>
+      <c r="B1062" s="1" t="n">
+        <v>0.919385286238426</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>16</v>
+      </c>
+      <c r="B1063" s="1" t="n">
+        <v>0.9200759725925926</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>17</v>
+      </c>
+      <c r="B1064" s="1" t="n">
+        <v>0.9207719207523147</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1065" s="1" t="n">
+        <v>0.9214633897569444</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>19</v>
+      </c>
+      <c r="B1066" s="1" t="n">
+        <v>0.9221590038888888</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>20</v>
+      </c>
+      <c r="B1067" s="1" t="n">
+        <v>0.9228536364004629</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>21</v>
+      </c>
+      <c r="B1068" s="1" t="n">
+        <v>0.9235495533912037</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>22</v>
+      </c>
+      <c r="B1069" s="1" t="n">
+        <v>0.9242410894328703</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>23</v>
+      </c>
+      <c r="B1070" s="1" t="n">
+        <v>0.9249390351388889</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>24</v>
+      </c>
+      <c r="B1071" s="1" t="n">
+        <v>0.9256300665393519</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>25</v>
+      </c>
+      <c r="B1072" s="1" t="n">
+        <v>0.9263252893287037</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1073" s="1" t="n">
+        <v>0.927019483912037</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>28</v>
+      </c>
+      <c r="B1074" s="1" t="n">
+        <v>0.9284087732175925</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>29</v>
+      </c>
+      <c r="B1075" s="1" t="n">
+        <v>0.9290999072222222</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>30</v>
+      </c>
+      <c r="B1076" s="1" t="n">
+        <v>0.929795601712963</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>31</v>
+      </c>
+      <c r="B1077" s="1" t="n">
+        <v>0.930488389675926</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>32</v>
+      </c>
+      <c r="B1078" s="1" t="n">
+        <v>0.9311841775462963</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>33</v>
+      </c>
+      <c r="B1079" s="1" t="n">
+        <v>0.9318789064930555</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>34</v>
+      </c>
+      <c r="B1080" s="1" t="n">
+        <v>0.9325719230787037</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>35</v>
+      </c>
+      <c r="B1081" s="1" t="n">
+        <v>0.9332672836226852</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>36</v>
+      </c>
+      <c r="B1082" s="1" t="n">
+        <v>0.933956907824074</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>37</v>
+      </c>
+      <c r="B1083" s="1" t="n">
+        <v>0.934652869386574</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>38</v>
+      </c>
+      <c r="B1084" s="1" t="n">
+        <v>0.9353430823379629</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>39</v>
+      </c>
+      <c r="B1085" s="1" t="n">
+        <v>0.9360431647685186</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>40</v>
+      </c>
+      <c r="B1086" s="1" t="n">
+        <v>0.9367358344328705</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>41</v>
+      </c>
+      <c r="B1087" s="1" t="n">
+        <v>0.9374287020023148</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>42</v>
+      </c>
+      <c r="B1088" s="1" t="n">
+        <v>0.9381257492592593</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>43</v>
+      </c>
+      <c r="B1089" s="1" t="n">
+        <v>0.9388174862037036</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>44</v>
+      </c>
+      <c r="B1090" s="1" t="n">
+        <v>0.9395087234953703</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>45</v>
+      </c>
+      <c r="B1091" s="1" t="n">
+        <v>0.9402044880324074</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>46</v>
+      </c>
+      <c r="B1092" s="1" t="n">
+        <v>0.9408979534374999</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>47</v>
+      </c>
+      <c r="B1093" s="1" t="n">
+        <v>0.9415908227199075</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>48</v>
+      </c>
+      <c r="B1094" s="1" t="n">
+        <v>0.942285884675926</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>49</v>
+      </c>
+      <c r="B1095" s="1" t="n">
+        <v>0.9429819138541666</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>50</v>
+      </c>
+      <c r="B1096" s="1" t="n">
+        <v>0.943673925625</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>51</v>
+      </c>
+      <c r="B1097" s="1" t="n">
+        <v>0.944368823287037</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>52</v>
+      </c>
+      <c r="B1098" s="1" t="n">
+        <v>0.9450637898263888</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>53</v>
+      </c>
+      <c r="B1099" s="1" t="n">
+        <v>0.9457576268634259</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>54</v>
+      </c>
+      <c r="B1100" s="1" t="n">
+        <v>0.94644999875</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>55</v>
+      </c>
+      <c r="B1101" s="1" t="n">
+        <v>0.9471452062268518</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>56</v>
+      </c>
+      <c r="B1102" s="1" t="n">
+        <v>0.9478391796412037</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>57</v>
+      </c>
+      <c r="B1103" s="1" t="n">
+        <v>0.9485327021412037</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>58</v>
+      </c>
+      <c r="B1104" s="1" t="n">
+        <v>0.9492273331134259</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>59</v>
+      </c>
+      <c r="B1105" s="1" t="n">
+        <v>0.949922858900463</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>60</v>
+      </c>
+      <c r="B1106" s="1" t="n">
+        <v>0.9506163142592592</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>62</v>
+      </c>
+      <c r="B1107" s="1" t="n">
+        <v>0.9520044841203704</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>63</v>
+      </c>
+      <c r="B1108" s="1" t="n">
+        <v>0.9526981943287036</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>64</v>
+      </c>
+      <c r="B1109" s="1" t="n">
+        <v>0.9533931860185186</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>65</v>
+      </c>
+      <c r="B1110" s="1" t="n">
+        <v>0.9540872651157407</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>66</v>
+      </c>
+      <c r="B1111" s="1" t="n">
+        <v>0.9547808580787036</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>67</v>
+      </c>
+      <c r="B1112" s="1" t="n">
+        <v>0.9554731252199073</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>68</v>
+      </c>
+      <c r="B1113" s="1" t="n">
+        <v>0.9561681708796296</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>69</v>
+      </c>
+      <c r="B1114" s="1" t="n">
+        <v>0.9568637479513888</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>70</v>
+      </c>
+      <c r="B1115" s="1" t="n">
+        <v>0.9575547781828704</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>71</v>
+      </c>
+      <c r="B1116" s="1" t="n">
+        <v>0.9582491689236111</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>72</v>
+      </c>
+      <c r="B1117" s="1" t="n">
+        <v>0.9589436730787037</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>73</v>
+      </c>
+      <c r="B1118" s="1" t="n">
+        <v>0.9596379921064814</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>74</v>
+      </c>
+      <c r="B1119" s="1" t="n">
+        <v>0.9603340550462963</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>75</v>
+      </c>
+      <c r="B1120" s="1" t="n">
+        <v>0.9610282842939815</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>76</v>
+      </c>
+      <c r="B1121" s="1" t="n">
+        <v>0.9617208482986112</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>77</v>
+      </c>
+      <c r="B1122" s="1" t="n">
+        <v>0.9624136929745369</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>78</v>
+      </c>
+      <c r="B1123" s="1" t="n">
+        <v>0.9631089119097223</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>79</v>
+      </c>
+      <c r="B1124" s="1" t="n">
+        <v>0.9638036594212963</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>80</v>
+      </c>
+      <c r="B1125" s="1" t="n">
+        <v>0.964497216875</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>81</v>
+      </c>
+      <c r="B1126" s="1" t="n">
+        <v>0.9651913618634259</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>82</v>
+      </c>
+      <c r="B1127" s="1" t="n">
+        <v>0.9658864686342593</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>83</v>
+      </c>
+      <c r="B1128" s="1" t="n">
+        <v>0.9665781803472222</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>84</v>
+      </c>
+      <c r="B1129" s="1" t="n">
+        <v>0.9672724661805555</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>85</v>
+      </c>
+      <c r="B1130" s="1" t="n">
+        <v>0.967967617025463</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>86</v>
+      </c>
+      <c r="B1131" s="1" t="n">
+        <v>0.9686647754050927</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>87</v>
+      </c>
+      <c r="B1132" s="1" t="n">
+        <v>0.969355055011574</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>88</v>
+      </c>
+      <c r="B1133" s="1" t="n">
+        <v>0.9700506128935186</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>89</v>
+      </c>
+      <c r="B1134" s="1" t="n">
+        <v>0.9707432706597222</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>90</v>
+      </c>
+      <c r="B1135" s="1" t="n">
+        <v>0.971437647662037</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>91</v>
+      </c>
+      <c r="B1136" s="1" t="n">
+        <v>0.9721310110069444</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>92</v>
+      </c>
+      <c r="B1137" s="1" t="n">
+        <v>0.9728262299421296</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>93</v>
+      </c>
+      <c r="B1138" s="1" t="n">
+        <v>0.9735200077199073</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>94</v>
+      </c>
+      <c r="B1139" s="1" t="n">
+        <v>0.9742166980439815</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>95</v>
+      </c>
+      <c r="B1140" s="1" t="n">
+        <v>0.9749085804166666</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>96</v>
+      </c>
+      <c r="B1141" s="1" t="n">
+        <v>0.9756031175231481</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>97</v>
+      </c>
+      <c r="B1142" s="1" t="n">
+        <v>0.9762958554282408</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>98</v>
+      </c>
+      <c r="B1143" s="1" t="n">
+        <v>0.9769909704166666</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>99</v>
+      </c>
+      <c r="B1144" s="1" t="n">
+        <v>0.977685197025463</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>100</v>
+      </c>
+      <c r="B1145" s="1" t="n">
+        <v>0.9783807387500001</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>101</v>
+      </c>
+      <c r="B1146" s="1" t="n">
+        <v>0.9790718621643518</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>102</v>
+      </c>
+      <c r="B1147" s="1" t="n">
+        <v>0.9797669440856481</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>103</v>
+      </c>
+      <c r="B1148" s="1" t="n">
+        <v>0.9804626364583333</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>104</v>
+      </c>
+      <c r="B1149" s="1" t="n">
+        <v>0.9811559915972222</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>105</v>
+      </c>
+      <c r="B1150" s="1" t="n">
+        <v>0.9818485686921297</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>106</v>
+      </c>
+      <c r="B1151" s="1" t="n">
+        <v>0.9825418368171296</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>107</v>
+      </c>
+      <c r="B1152" s="1" t="n">
+        <v>0.9832372672222223</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>108</v>
+      </c>
+      <c r="B1153" s="1" t="n">
+        <v>0.9839317949074073</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>109</v>
+      </c>
+      <c r="B1154" s="1" t="n">
+        <v>0.9846243925578704</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>110</v>
+      </c>
+      <c r="B1155" s="1" t="n">
+        <v>0.9853197735300927</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>111</v>
+      </c>
+      <c r="B1156" s="1" t="n">
+        <v>0.9860124750462962</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>112</v>
+      </c>
+      <c r="B1157" s="1" t="n">
+        <v>0.9867068999537038</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>113</v>
+      </c>
+      <c r="B1158" s="1" t="n">
+        <v>0.9874019711805556</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>114</v>
+      </c>
+      <c r="B1159" s="1" t="n">
+        <v>0.9880962929050926</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>115</v>
+      </c>
+      <c r="B1160" s="1" t="n">
+        <v>0.9887898272453703</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>116</v>
+      </c>
+      <c r="B1161" s="1" t="n">
+        <v>0.9894837099189816</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>117</v>
+      </c>
+      <c r="B1162" s="1" t="n">
+        <v>0.9901788946412038</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>118</v>
+      </c>
+      <c r="B1163" s="1" t="n">
+        <v>0.9908743224652777</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>119</v>
+      </c>
+      <c r="B1164" s="1" t="n">
+        <v>0.9915659068402778</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>120</v>
+      </c>
+      <c r="B1165" s="1" t="n">
+        <v>0.9922613930324073</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>121</v>
+      </c>
+      <c r="B1166" s="1" t="n">
+        <v>0.9929556067361111</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>122</v>
+      </c>
+      <c r="B1167" s="1" t="n">
+        <v>0.9936511512152778</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>123</v>
+      </c>
+      <c r="B1168" s="1" t="n">
+        <v>0.9943425828009259</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>124</v>
+      </c>
+      <c r="B1169" s="1" t="n">
+        <v>0.9950372727777778</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>125</v>
+      </c>
+      <c r="B1170" s="1" t="n">
+        <v>0.9957317107060185</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>126</v>
+      </c>
+      <c r="B1171" s="1" t="n">
+        <v>0.9964255739699074</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>127</v>
+      </c>
+      <c r="B1172" s="1" t="n">
+        <v>0.9971194764699073</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>128</v>
+      </c>
+      <c r="B1173" s="1" t="n">
+        <v>0.997812027962963</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>129</v>
+      </c>
+      <c r="B1174" s="1" t="n">
+        <v>0.9985072129282407</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>130</v>
+      </c>
+      <c r="B1175" s="1" t="n">
+        <v>0.9992014150810186</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>131</v>
+      </c>
+      <c r="B1176" s="1" t="n">
+        <v>0.999895940462963</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
